--- a/medicine/Enfance/Théâtre_jeunesse_Les_Gros_Becs/Théâtre_jeunesse_Les_Gros_Becs.xlsx
+++ b/medicine/Enfance/Théâtre_jeunesse_Les_Gros_Becs/Théâtre_jeunesse_Les_Gros_Becs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_jeunesse_Les_Gros_Becs</t>
+          <t>Théâtre_jeunesse_Les_Gros_Becs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Théâtre jeunesse Les Gros Becs est un diffuseur de théâtre pour l’enfance créé en 1987 à Québec[1]. Les Gros Becs veulent contribuer au développement du théâtre, à l’éveil artistique des enfants (âgés de 1 à 17 ans[2]) et à leur éducation[3]. Ils offrent entre autres, des suggestions lectures[4], des outils d'accompagnement, des ateliers de médiation culturelle et bien plus encore. Les spectateurs de ce théâtre proviennent généralement de la Capitale-Nationale ou de Chaudière-Appalaches, autant d’un milieu scolaire que d’un milieu familial[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Théâtre jeunesse Les Gros Becs est un diffuseur de théâtre pour l’enfance créé en 1987 à Québec. Les Gros Becs veulent contribuer au développement du théâtre, à l’éveil artistique des enfants (âgés de 1 à 17 ans) et à leur éducation. Ils offrent entre autres, des suggestions lectures, des outils d'accompagnement, des ateliers de médiation culturelle et bien plus encore. Les spectateurs de ce théâtre proviennent généralement de la Capitale-Nationale ou de Chaudière-Appalaches, autant d’un milieu scolaire que d’un milieu familial.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_jeunesse_Les_Gros_Becs</t>
+          <t>Théâtre_jeunesse_Les_Gros_Becs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Théâtre jeunesse Les Gros Becs a été créé en 1987 par trois compagnies de théâtre de Québec :  Le Théâtre du Gros Mécano, Le Théâtre des Confettis et L’Aubergine[6]. Par la suite, en 1994 s’est ajouté le Théâtre de Sable puis en 2008 Nuages en pantalon– Compagnie de création[7].
-Plus de 10 ans plus tard, le théâtre travaille à développer des services éducatifs. Autrefois itinérant, c’est à partir de 2002 que le théâtre s’installe à Québec, plus précisément au 1143 rue Saint-Jean. Cette même année, les services éducatifs que les Gros Becs avaient commencé à développer deviennent particulièrement fructueux. Depuis 2021, Les Gros Becs sont installés temporairement au Centre commercial Fleur de Lys[8] ayant comme objectif d’inaugurer leur propre endroit en 2024[9] : La Caserne- scène jeune public[10]. Ce projet est notamment financé par Patrimoine Canada[11]la Ville de Québec et le gouvernement du Québec. Il est d'ailleurs toujours en cours.
-Les Gros Becs voient leur nombre de spectacles par année passer de 6 à 16. Le nombre de spectateurs évolue également, passant de 2000 à plus de 27 0000 par année. Le Théâtre jeunesse Les Gros Becs est maintenant un organisme de référence[12] en matière de théâtre pour la jeunesse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Théâtre jeunesse Les Gros Becs a été créé en 1987 par trois compagnies de théâtre de Québec :  Le Théâtre du Gros Mécano, Le Théâtre des Confettis et L’Aubergine. Par la suite, en 1994 s’est ajouté le Théâtre de Sable puis en 2008 Nuages en pantalon– Compagnie de création.
+Plus de 10 ans plus tard, le théâtre travaille à développer des services éducatifs. Autrefois itinérant, c’est à partir de 2002 que le théâtre s’installe à Québec, plus précisément au 1143 rue Saint-Jean. Cette même année, les services éducatifs que les Gros Becs avaient commencé à développer deviennent particulièrement fructueux. Depuis 2021, Les Gros Becs sont installés temporairement au Centre commercial Fleur de Lys ayant comme objectif d’inaugurer leur propre endroit en 2024 : La Caserne- scène jeune public. Ce projet est notamment financé par Patrimoine Canadala Ville de Québec et le gouvernement du Québec. Il est d'ailleurs toujours en cours.
+Les Gros Becs voient leur nombre de spectacles par année passer de 6 à 16. Le nombre de spectateurs évolue également, passant de 2000 à plus de 27 0000 par année. Le Théâtre jeunesse Les Gros Becs est maintenant un organisme de référence en matière de théâtre pour la jeunesse.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_jeunesse_Les_Gros_Becs</t>
+          <t>Théâtre_jeunesse_Les_Gros_Becs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Projets spéciaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fabrique culturelle s'est notamment intéressée aux Gros Becs. Cette plateforme bien connue dans le milieu culturel au Québec a fait découvrir le théâtre à l'aide de capsules vidéo[13]. Avec la pandémie et la fermeture des salles, Les Gros Becs ont usé de leur créativité afin de continuer à présenter du théâtre. Pour ce faire, ils ont mis en place Théâtre de parcs afin d’aller rejoindre directement le public[14]. Ce projet perdure depuis 2020. En 2022 a également eu lieu le lancement de Théâtrophone[15], un outil pédagogique de théâtre audio. Cet outil a été conçu en collaboration avec l’Arrière-scène et la Maison théâtre[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fabrique culturelle s'est notamment intéressée aux Gros Becs. Cette plateforme bien connue dans le milieu culturel au Québec a fait découvrir le théâtre à l'aide de capsules vidéo. Avec la pandémie et la fermeture des salles, Les Gros Becs ont usé de leur créativité afin de continuer à présenter du théâtre. Pour ce faire, ils ont mis en place Théâtre de parcs afin d’aller rejoindre directement le public. Ce projet perdure depuis 2020. En 2022 a également eu lieu le lancement de Théâtrophone, un outil pédagogique de théâtre audio. Cet outil a été conçu en collaboration avec l’Arrière-scène et la Maison théâtre.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_jeunesse_Les_Gros_Becs</t>
+          <t>Théâtre_jeunesse_Les_Gros_Becs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Comité artistique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le comité artistique est aujourd’hui composé de cinq compagnies membres soit L’Aubergine, le Théâtre du Gros Mécano, le Théâtre des Confettis, Nuages en pantalon – compagnie de création et Les Incomplètes. Jean-Philippe Joubert[17] est porte-parole de ce comité, à titre de directeur général et délégué artistique des Gros Becs. Mélissa Merlo est, depuis 2022, la codirectrice artistique et la responsable de la programmation des Gros Becs.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comité artistique est aujourd’hui composé de cinq compagnies membres soit L’Aubergine, le Théâtre du Gros Mécano, le Théâtre des Confettis, Nuages en pantalon – compagnie de création et Les Incomplètes. Jean-Philippe Joubert est porte-parole de ce comité, à titre de directeur général et délégué artistique des Gros Becs. Mélissa Merlo est, depuis 2022, la codirectrice artistique et la responsable de la programmation des Gros Becs.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_jeunesse_Les_Gros_Becs</t>
+          <t>Théâtre_jeunesse_Les_Gros_Becs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Théâtrographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Programmation 2022-2023[18],[19].
-Programmation 2021-2022[20].
-Programmation 2020-2021[21].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Programmation 2022-2023,.
+Programmation 2021-2022.
+Programmation 2020-2021.</t>
         </is>
       </c>
     </row>
